--- a/public/assets/file/format data sekuen.xlsx
+++ b/public/assets/file/format data sekuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\rc_gerid\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF634821-67DD-4F76-B743-52661DD5D16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A065854-71A5-40A5-8103-400BA8010082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{551938E5-C61D-4C2F-8189-1C2A20503EB3}"/>
   </bookViews>
@@ -501,11 +501,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="27.7265625" customWidth="1"/>
     <col min="4" max="4" width="23.26953125" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" customWidth="1"/>
@@ -571,9 +572,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{E6580166-303A-4C54-8DFE-90EEFA62F485}">
       <formula1>"Januari, Februari, Maret, April, Mei, Juni, Juli, Agustus, September, Oktober, November, Desember"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{AC804AFA-6814-41FA-AD44-5FFC120995CF}">
+      <formula1>"Hepatitis B, Hepatitis C, Dengue, Norovirus, Rotavirus, HIV"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/file/format data sekuen.xlsx
+++ b/public/assets/file/format data sekuen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\rc_gerid\public\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAIN LAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A065854-71A5-40A5-8103-400BA8010082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE2216E-DCCB-4976-AE86-ADD0CD7909EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{551938E5-C61D-4C2F-8189-1C2A20503EB3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kode sampel</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Catatan : 1) Pastikan semua data pada setiap kolom terisi; 2) Jika terdapat data yang kosong, maka file excel tidak dapat di import; 3) simpan nama file sesuai dengan jenis virus</t>
+  </si>
+  <si>
+    <t>Ukuran</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C60FFE-5F83-43DE-BE45-C963D72D0BB6}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +517,7 @@
     <col min="8" max="8" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -530,7 +533,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,12 +562,15 @@
         <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/public/assets/file/format data sekuen.xlsx
+++ b/public/assets/file/format data sekuen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAIN LAIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\rc_gerid\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE2216E-DCCB-4976-AE86-ADD0CD7909EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E858A-3C9C-4860-B12B-1152515B028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{551938E5-C61D-4C2F-8189-1C2A20503EB3}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C60FFE-5F83-43DE-BE45-C963D72D0BB6}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/assets/file/format data sekuen.xlsx
+++ b/public/assets/file/format data sekuen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\rc_gerid\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E858A-3C9C-4860-B12B-1152515B028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378759FD-0B3C-4E1A-9557-1F88BC752B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{551938E5-C61D-4C2F-8189-1C2A20503EB3}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>Catatan : 1) Pastikan semua data pada setiap kolom terisi; 2) Jika terdapat data yang kosong, maka file excel tidak dapat di import; 3) simpan nama file sesuai dengan jenis virus</t>
   </si>
   <si>
-    <t>Ukuran</t>
+    <t>Size Gen</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
